--- a/Python/auc_p_value_matrix_ann.xlsx
+++ b/Python/auc_p_value_matrix_ann.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Rodrigo S. Hirama\Documentos\EACH\IC\Classification-of-mammography-images\Python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB306101-86AE-4EFE-861E-85C809870068}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCD4584-1C88-4D7B-88A5-612C69CFC43E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -439,61 +439,61 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.21105488564855721</v>
+        <v>0.27071885046307631</v>
       </c>
       <c r="D2">
-        <v>0.58887067246263325</v>
+        <v>0.99861630651124278</v>
       </c>
       <c r="E2">
-        <v>0.15742811172364651</v>
+        <v>6.1830398943743883E-2</v>
       </c>
       <c r="F2">
-        <v>1.3904838691556891E-2</v>
+        <v>4.0142046847976608E-3</v>
       </c>
       <c r="G2">
-        <v>1.768646907345833E-3</v>
+        <v>1.3744010949640059E-4</v>
       </c>
       <c r="H2">
-        <v>0.85531140940004424</v>
+        <v>0.64527543825735556</v>
       </c>
       <c r="I2">
-        <v>0.13110192760631001</v>
+        <v>6.2327924966610652E-2</v>
       </c>
       <c r="J2">
-        <v>0.8029523721448345</v>
+        <v>0.40310182961995977</v>
       </c>
       <c r="K2">
-        <v>0.38249619264147289</v>
+        <v>0.2904787097835565</v>
       </c>
       <c r="L2">
-        <v>0.81363540631445797</v>
+        <v>0.90568946224527591</v>
       </c>
       <c r="M2">
-        <v>5.9365737904070758E-2</v>
+        <v>2.2660032998794901E-2</v>
       </c>
       <c r="N2">
-        <v>0.29109471768131218</v>
+        <v>0.19910257037958631</v>
       </c>
       <c r="O2">
-        <v>0.50753356100676106</v>
+        <v>0.92353777284262428</v>
       </c>
       <c r="P2">
-        <v>0.70233253996428613</v>
+        <v>0.91260048201946353</v>
       </c>
       <c r="Q2">
-        <v>0.36366904040177028</v>
+        <v>0.63969912329173906</v>
       </c>
       <c r="R2">
-        <v>4.1251767922944943E-3</v>
+        <v>2.3621880677165429E-2</v>
       </c>
       <c r="S2">
-        <v>1.3647795485932661E-3</v>
+        <v>6.0501546669398921E-4</v>
       </c>
       <c r="T2">
-        <v>1.9982948390647199E-2</v>
+        <v>2.160871112204402E-2</v>
       </c>
       <c r="U2">
-        <v>5.2559506299195487E-2</v>
+        <v>4.7349902716855567E-2</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -501,64 +501,64 @@
         <v>2E-3</v>
       </c>
       <c r="B3">
-        <v>0.21105488564855721</v>
+        <v>0.27071885046307631</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.54887293356397759</v>
+        <v>0.30723766702885202</v>
       </c>
       <c r="E3">
-        <v>8.043702757389486E-3</v>
+        <v>0.40400785566803771</v>
       </c>
       <c r="F3">
-        <v>1.5143178137006131E-4</v>
+        <v>6.9145625476283543E-2</v>
       </c>
       <c r="G3">
-        <v>8.4814033969154866E-6</v>
+        <v>5.1526467286897139E-3</v>
       </c>
       <c r="H3">
-        <v>0.139587304351591</v>
+        <v>0.50048090350850494</v>
       </c>
       <c r="I3">
-        <v>4.9039108621048884E-3</v>
+        <v>0.44151178064199859</v>
       </c>
       <c r="J3">
-        <v>0.1114610144297709</v>
+        <v>0.72194098017781616</v>
       </c>
       <c r="K3">
-        <v>2.617247426795042E-2</v>
+        <v>0.8909322835269704</v>
       </c>
       <c r="L3">
-        <v>0.29573654652063369</v>
+        <v>0.29719910847885478</v>
       </c>
       <c r="M3">
-        <v>1.2990818956819261E-3</v>
+        <v>0.22350347102628049</v>
       </c>
       <c r="N3">
-        <v>1.8899065023101749E-2</v>
+        <v>0.88357760506579919</v>
       </c>
       <c r="O3">
-        <v>0.53301983094476524</v>
+        <v>0.19707170975854421</v>
       </c>
       <c r="P3">
-        <v>0.34889111782327298</v>
+        <v>0.19156705878699609</v>
       </c>
       <c r="Q3">
-        <v>0.69385667353563485</v>
+        <v>0.10214912404690719</v>
       </c>
       <c r="R3">
-        <v>8.9704041473268992E-2</v>
+        <v>5.0544331060029435E-4</v>
       </c>
       <c r="S3">
-        <v>4.5386859255410167E-2</v>
+        <v>4.5656146139792094E-6</v>
       </c>
       <c r="T3">
-        <v>0.28000083901547818</v>
+        <v>4.477272807662955E-4</v>
       </c>
       <c r="U3">
-        <v>0.53321067977524561</v>
+        <v>1.3303393215650949E-3</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -566,64 +566,64 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="B4">
-        <v>0.58887067246263325</v>
+        <v>0.99861630651124278</v>
       </c>
       <c r="C4">
-        <v>0.54887293356397759</v>
+        <v>0.30723766702885202</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>6.7806137403630187E-2</v>
+        <v>8.2344401732719605E-2</v>
       </c>
       <c r="F4">
-        <v>5.4075956048122743E-3</v>
+        <v>8.1636502751104602E-3</v>
       </c>
       <c r="G4">
-        <v>7.3216755501275281E-4</v>
+        <v>4.737677056791798E-4</v>
       </c>
       <c r="H4">
-        <v>0.47061640004355482</v>
+        <v>0.66899005606954642</v>
       </c>
       <c r="I4">
-        <v>5.4222335308459761E-2</v>
+        <v>8.5427971400300465E-2</v>
       </c>
       <c r="J4">
-        <v>0.42528834744145289</v>
+        <v>0.44244513429930388</v>
       </c>
       <c r="K4">
-        <v>0.17356615541674511</v>
+        <v>0.33258171078280307</v>
       </c>
       <c r="L4">
-        <v>0.73593941636996352</v>
+        <v>0.9114427092972982</v>
       </c>
       <c r="M4">
-        <v>2.3390420998008851E-2</v>
+        <v>3.5232510136523107E-2</v>
       </c>
       <c r="N4">
-        <v>0.13048545887794241</v>
+        <v>0.23664745835504419</v>
       </c>
       <c r="O4">
-        <v>0.96139307736471069</v>
+        <v>0.93104265953493603</v>
       </c>
       <c r="P4">
-        <v>0.82653214474567149</v>
+        <v>0.92097905922376888</v>
       </c>
       <c r="Q4">
-        <v>0.79187478700687963</v>
+        <v>0.66624701129801711</v>
       </c>
       <c r="R4">
-        <v>3.3767880951125338E-2</v>
+        <v>3.6321676396843597E-2</v>
       </c>
       <c r="S4">
-        <v>1.6207462845926269E-2</v>
+        <v>1.379148370745271E-3</v>
       </c>
       <c r="T4">
-        <v>0.1142787734893619</v>
+        <v>3.3564729318428937E-2</v>
       </c>
       <c r="U4">
-        <v>0.2355539855906961</v>
+        <v>6.7177421816625268E-2</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -631,64 +631,64 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="B5">
-        <v>0.15742811172364651</v>
+        <v>6.1830398943743883E-2</v>
       </c>
       <c r="C5">
-        <v>8.043702757389486E-3</v>
+        <v>0.40400785566803771</v>
       </c>
       <c r="D5">
-        <v>6.7806137403630187E-2</v>
+        <v>8.2344401732719605E-2</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.35330708017494722</v>
+        <v>0.3795278292388895</v>
       </c>
       <c r="G5">
-        <v>0.1117965737246459</v>
+        <v>7.0185696031851458E-2</v>
       </c>
       <c r="H5">
-        <v>0.19963069041098169</v>
+        <v>0.13677639548551521</v>
       </c>
       <c r="I5">
-        <v>0.984815352154079</v>
+        <v>0.90886042503199715</v>
       </c>
       <c r="J5">
-        <v>0.20464960820008241</v>
+        <v>0.21735701159693621</v>
       </c>
       <c r="K5">
-        <v>0.50800012391948191</v>
+        <v>0.30148765798016958</v>
       </c>
       <c r="L5">
-        <v>9.2839210760142357E-2</v>
+        <v>6.4150069573780583E-2</v>
       </c>
       <c r="M5">
-        <v>0.71942812232876685</v>
+        <v>0.7429980373214089</v>
       </c>
       <c r="N5">
-        <v>0.67719903937075887</v>
+        <v>0.46719283235261982</v>
       </c>
       <c r="O5">
-        <v>3.5064094537264029E-2</v>
+        <v>3.5395453921111798E-2</v>
       </c>
       <c r="P5">
-        <v>6.1977767008589472E-2</v>
+        <v>3.3991059788766681E-2</v>
       </c>
       <c r="Q5">
-        <v>1.7898943899704159E-2</v>
+        <v>1.5957077934356429E-2</v>
       </c>
       <c r="R5">
-        <v>3.0990622644575547E-5</v>
+        <v>3.0188267587006789E-5</v>
       </c>
       <c r="S5">
-        <v>5.9665984999787224E-6</v>
+        <v>2.037205290976919E-7</v>
       </c>
       <c r="T5">
-        <v>2.07613304526675E-4</v>
+        <v>2.6465662829402569E-5</v>
       </c>
       <c r="U5">
-        <v>6.7496974590167689E-4</v>
+        <v>8.7134891309099995E-5</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -696,64 +696,64 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="B6">
-        <v>1.3904838691556891E-2</v>
+        <v>4.0142046847976608E-3</v>
       </c>
       <c r="C6">
-        <v>1.5143178137006131E-4</v>
+        <v>6.9145625476283543E-2</v>
       </c>
       <c r="D6">
-        <v>5.4075956048122743E-3</v>
+        <v>8.1636502751104602E-3</v>
       </c>
       <c r="E6">
-        <v>0.35330708017494722</v>
+        <v>0.3795278292388895</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4664895057130537</v>
+        <v>0.30720039015545531</v>
       </c>
       <c r="H6">
-        <v>1.7962911827425949E-2</v>
+        <v>1.144314977811575E-2</v>
       </c>
       <c r="I6">
-        <v>0.33309501393424851</v>
+        <v>0.28549970484605641</v>
       </c>
       <c r="J6">
-        <v>1.6268226254392702E-2</v>
+        <v>1.910968078719124E-2</v>
       </c>
       <c r="K6">
-        <v>7.9663182643729888E-2</v>
+        <v>3.229891392751108E-2</v>
       </c>
       <c r="L6">
-        <v>5.4265587109495949E-3</v>
+        <v>3.3258582808991508E-3</v>
       </c>
       <c r="M6">
-        <v>0.53360861384353853</v>
+        <v>0.56642858599910917</v>
       </c>
       <c r="N6">
-        <v>0.15333306205479641</v>
+        <v>7.9733954577495963E-2</v>
       </c>
       <c r="O6">
-        <v>1.1679691319983691E-3</v>
+        <v>1.201265596092091E-3</v>
       </c>
       <c r="P6">
-        <v>2.488898533891453E-3</v>
+        <v>1.120557419855551E-3</v>
       </c>
       <c r="Q6">
-        <v>3.8964064587659929E-4</v>
+        <v>4.385442269348654E-4</v>
       </c>
       <c r="R6">
-        <v>1.050392069685657E-7</v>
+        <v>7.1590081864807851E-8</v>
       </c>
       <c r="S6">
-        <v>8.9226006791013083E-9</v>
+        <v>2.05556249882986E-10</v>
       </c>
       <c r="T6">
-        <v>8.3499767257682062E-7</v>
+        <v>6.1071978629408152E-8</v>
       </c>
       <c r="U6">
-        <v>2.7963355654660078E-6</v>
+        <v>2.6273533973807022E-7</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -761,64 +761,64 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="B7">
-        <v>1.768646907345833E-3</v>
+        <v>1.3744010949640059E-4</v>
       </c>
       <c r="C7">
-        <v>8.4814033969154866E-6</v>
+        <v>5.1526467286897139E-3</v>
       </c>
       <c r="D7">
-        <v>7.3216755501275281E-4</v>
+        <v>4.737677056791798E-4</v>
       </c>
       <c r="E7">
-        <v>0.1117965737246459</v>
+        <v>7.0185696031851458E-2</v>
       </c>
       <c r="F7">
-        <v>0.4664895057130537</v>
+        <v>0.30720039015545531</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>2.1911599418341868E-3</v>
+        <v>4.3369080943234871E-4</v>
       </c>
       <c r="I7">
-        <v>9.3926495531017826E-2</v>
+        <v>3.7837654891513452E-2</v>
       </c>
       <c r="J7">
-        <v>1.738274874567349E-3</v>
+        <v>6.252556197728329E-4</v>
       </c>
       <c r="K7">
-        <v>1.2790883617086289E-2</v>
+        <v>1.225376538710175E-3</v>
       </c>
       <c r="L7">
-        <v>5.2658642850562161E-4</v>
+        <v>8.0904763977068426E-5</v>
       </c>
       <c r="M7">
-        <v>0.1770787680397776</v>
+        <v>0.118288448038122</v>
       </c>
       <c r="N7">
-        <v>3.3553614779047447E-2</v>
+        <v>5.348978460721434E-3</v>
       </c>
       <c r="O7">
-        <v>8.3244039769896067E-5</v>
+        <v>1.9328850194036021E-5</v>
       </c>
       <c r="P7">
-        <v>1.8725860748659631E-4</v>
+        <v>1.7530536182437422E-5</v>
       </c>
       <c r="Q7">
-        <v>2.183428890054966E-5</v>
+        <v>6.6708261383269144E-6</v>
       </c>
       <c r="R7">
-        <v>3.010348861796489E-9</v>
+        <v>1.9793818420838081E-10</v>
       </c>
       <c r="S7">
-        <v>1.7452323011691099E-10</v>
+        <v>4.2889025364314838E-13</v>
       </c>
       <c r="T7">
-        <v>2.305994063786861E-8</v>
+        <v>1.6713553797903741E-10</v>
       </c>
       <c r="U7">
-        <v>7.0097417837121563E-8</v>
+        <v>8.0201442387832445E-10</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -826,64 +826,64 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="B8">
-        <v>0.85531140940004424</v>
+        <v>0.64527543825735556</v>
       </c>
       <c r="C8">
-        <v>0.139587304351591</v>
+        <v>0.50048090350850494</v>
       </c>
       <c r="D8">
-        <v>0.47061640004355482</v>
+        <v>0.66899005606954642</v>
       </c>
       <c r="E8">
-        <v>0.19963069041098169</v>
+        <v>0.13677639548551521</v>
       </c>
       <c r="F8">
-        <v>1.7962911827425949E-2</v>
+        <v>1.144314977811575E-2</v>
       </c>
       <c r="G8">
-        <v>2.1911599418341868E-3</v>
+        <v>4.3369080943234871E-4</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.16829497256496201</v>
+        <v>0.14288961462427399</v>
       </c>
       <c r="J8">
-        <v>0.94970664711264119</v>
+        <v>0.71434480497530184</v>
       </c>
       <c r="K8">
-        <v>0.47674045931744358</v>
+        <v>0.55222916143332845</v>
       </c>
       <c r="L8">
-        <v>0.66606015186862033</v>
+        <v>0.71634943945484975</v>
       </c>
       <c r="M8">
-        <v>7.7152327935268647E-2</v>
+        <v>5.6710506847563381E-2</v>
       </c>
       <c r="N8">
-        <v>0.36446952640353553</v>
+        <v>0.39541823915673591</v>
       </c>
       <c r="O8">
-        <v>0.38143001227814238</v>
+        <v>0.54955650685881541</v>
       </c>
       <c r="P8">
-        <v>0.55508310873477495</v>
+        <v>0.53948013344643864</v>
       </c>
       <c r="Q8">
-        <v>0.25696358585112322</v>
+        <v>0.33215122224033999</v>
       </c>
       <c r="R8">
-        <v>1.7441918280137591E-3</v>
+        <v>4.5405217085927691E-3</v>
       </c>
       <c r="S8">
-        <v>4.8997220128347673E-4</v>
+        <v>6.3153504091794087E-5</v>
       </c>
       <c r="T8">
-        <v>9.5421709355671906E-3</v>
+        <v>4.0791400816907039E-3</v>
       </c>
       <c r="U8">
-        <v>2.722673669290224E-2</v>
+        <v>1.0581228653927631E-2</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -891,64 +891,64 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="B9">
-        <v>0.13110192760631001</v>
+        <v>6.2327924966610652E-2</v>
       </c>
       <c r="C9">
-        <v>4.9039108621048884E-3</v>
+        <v>0.44151178064199859</v>
       </c>
       <c r="D9">
-        <v>5.4222335308459761E-2</v>
+        <v>8.5427971400300465E-2</v>
       </c>
       <c r="E9">
-        <v>0.984815352154079</v>
+        <v>0.90886042503199715</v>
       </c>
       <c r="F9">
-        <v>0.33309501393424851</v>
+        <v>0.28549970484605641</v>
       </c>
       <c r="G9">
-        <v>9.3926495531017826E-2</v>
+        <v>3.7837654891513452E-2</v>
       </c>
       <c r="H9">
-        <v>0.16829497256496201</v>
+        <v>0.14288961462427399</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.1708584383809181</v>
+        <v>0.2311607040281064</v>
       </c>
       <c r="K9">
-        <v>0.46800897996511781</v>
+        <v>0.32585770400575159</v>
       </c>
       <c r="L9">
-        <v>7.244868954938001E-2</v>
+        <v>6.3880781061159228E-2</v>
       </c>
       <c r="M9">
-        <v>0.71767521489437236</v>
+        <v>0.63767717453030826</v>
       </c>
       <c r="N9">
-        <v>0.64493666148463125</v>
+        <v>0.51304741852628455</v>
       </c>
       <c r="O9">
-        <v>2.4540596652838781E-2</v>
+        <v>3.3540325245725547E-2</v>
       </c>
       <c r="P9">
-        <v>4.5492717752274002E-2</v>
+        <v>3.2090614185397139E-2</v>
       </c>
       <c r="Q9">
-        <v>1.1487691412458249E-2</v>
+        <v>1.4465158397158491E-2</v>
       </c>
       <c r="R9">
-        <v>1.153151746749844E-5</v>
+        <v>1.585970041487317E-5</v>
       </c>
       <c r="S9">
-        <v>1.755458076226159E-6</v>
+        <v>7.8161807827205954E-8</v>
       </c>
       <c r="T9">
-        <v>8.4465600985405672E-5</v>
+        <v>1.3778491824322639E-5</v>
       </c>
       <c r="U9">
-        <v>2.871296854111173E-4</v>
+        <v>4.9401563314045282E-5</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -956,64 +956,64 @@
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="B10">
-        <v>0.8029523721448345</v>
+        <v>0.40310182961995977</v>
       </c>
       <c r="C10">
-        <v>0.1114610144297709</v>
+        <v>0.72194098017781616</v>
       </c>
       <c r="D10">
-        <v>0.42528834744145289</v>
+        <v>0.44244513429930388</v>
       </c>
       <c r="E10">
-        <v>0.20464960820008241</v>
+        <v>0.21735701159693621</v>
       </c>
       <c r="F10">
-        <v>1.6268226254392702E-2</v>
+        <v>1.910968078719124E-2</v>
       </c>
       <c r="G10">
-        <v>1.738274874567349E-3</v>
+        <v>6.252556197728329E-4</v>
       </c>
       <c r="H10">
-        <v>0.94970664711264119</v>
+        <v>0.71434480497530184</v>
       </c>
       <c r="I10">
-        <v>0.1708584383809181</v>
+        <v>0.2311607040281064</v>
       </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0.49902953240775211</v>
+        <v>0.80828924851780815</v>
       </c>
       <c r="L10">
-        <v>0.60983292692189384</v>
+        <v>0.44750000914430588</v>
       </c>
       <c r="M10">
-        <v>7.5522747407697294E-2</v>
+        <v>9.4361908339447298E-2</v>
       </c>
       <c r="N10">
-        <v>0.37918044030344128</v>
+        <v>0.59483749462603752</v>
       </c>
       <c r="O10">
-        <v>0.3312870594269951</v>
+        <v>0.30680503864922998</v>
       </c>
       <c r="P10">
-        <v>0.49739502277625292</v>
+        <v>0.29881364100180208</v>
       </c>
       <c r="Q10">
-        <v>0.21422916773552431</v>
+        <v>0.16166965118519239</v>
       </c>
       <c r="R10">
-        <v>1.0048217174921559E-3</v>
+        <v>7.1770002819693918E-4</v>
       </c>
       <c r="S10">
-        <v>2.4654655373752431E-4</v>
+        <v>5.2469279590838088E-6</v>
       </c>
       <c r="T10">
-        <v>5.9963658072218814E-3</v>
+        <v>6.3250325845437419E-4</v>
       </c>
       <c r="U10">
-        <v>1.8097470812841781E-2</v>
+        <v>1.9655598244796889E-3</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1021,64 +1021,64 @@
         <v>0.01</v>
       </c>
       <c r="B11">
-        <v>0.38249619264147289</v>
+        <v>0.2904787097835565</v>
       </c>
       <c r="C11">
-        <v>2.617247426795042E-2</v>
+        <v>0.8909322835269704</v>
       </c>
       <c r="D11">
-        <v>0.17356615541674511</v>
+        <v>0.33258171078280307</v>
       </c>
       <c r="E11">
-        <v>0.50800012391948191</v>
+        <v>0.30148765798016958</v>
       </c>
       <c r="F11">
-        <v>7.9663182643729888E-2</v>
+        <v>3.229891392751108E-2</v>
       </c>
       <c r="G11">
-        <v>1.2790883617086289E-2</v>
+        <v>1.225376538710175E-3</v>
       </c>
       <c r="H11">
-        <v>0.47674045931744358</v>
+        <v>0.55222916143332845</v>
       </c>
       <c r="I11">
-        <v>0.46800897996511781</v>
+        <v>0.32585770400575159</v>
       </c>
       <c r="J11">
-        <v>0.49902953240775211</v>
+        <v>0.80828924851780815</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>0.24864450484226741</v>
+        <v>0.31942948384483849</v>
       </c>
       <c r="M11">
-        <v>0.26227665523381649</v>
+        <v>0.142357099030783</v>
       </c>
       <c r="N11">
-        <v>0.81110074704340995</v>
+        <v>0.7607590193584356</v>
       </c>
       <c r="O11">
-        <v>0.10509732746414931</v>
+        <v>0.20509363244962789</v>
       </c>
       <c r="P11">
-        <v>0.17849602357732891</v>
+        <v>0.19885064981560219</v>
       </c>
       <c r="Q11">
-        <v>5.7108568982188322E-2</v>
+        <v>0.10141444435835741</v>
       </c>
       <c r="R11">
-        <v>1.023646773407275E-4</v>
+        <v>2.7559145630157541E-4</v>
       </c>
       <c r="S11">
-        <v>1.852576821243422E-5</v>
+        <v>1.6287292802392299E-6</v>
       </c>
       <c r="T11">
-        <v>7.1162071850096223E-4</v>
+        <v>2.4122916686599241E-4</v>
       </c>
       <c r="U11">
-        <v>2.3634201412706E-3</v>
+        <v>8.004630598521823E-4</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1086,64 +1086,64 @@
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="B12">
-        <v>0.81363540631445797</v>
+        <v>0.90568946224527591</v>
       </c>
       <c r="C12">
-        <v>0.29573654652063369</v>
+        <v>0.29719910847885478</v>
       </c>
       <c r="D12">
-        <v>0.73593941636996352</v>
+        <v>0.9114427092972982</v>
       </c>
       <c r="E12">
-        <v>9.2839210760142357E-2</v>
+        <v>6.4150069573780583E-2</v>
       </c>
       <c r="F12">
-        <v>5.4265587109495949E-3</v>
+        <v>3.3258582808991508E-3</v>
       </c>
       <c r="G12">
-        <v>5.2658642850562161E-4</v>
+        <v>8.0904763977068426E-5</v>
       </c>
       <c r="H12">
-        <v>0.66606015186862033</v>
+        <v>0.71634943945484975</v>
       </c>
       <c r="I12">
-        <v>7.244868954938001E-2</v>
+        <v>6.3880781061159228E-2</v>
       </c>
       <c r="J12">
-        <v>0.60983292692189384</v>
+        <v>0.44750000914430588</v>
       </c>
       <c r="K12">
-        <v>0.24864450484226741</v>
+        <v>0.31942948384483849</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.8530138984038139E-2</v>
+        <v>2.185574772316258E-2</v>
       </c>
       <c r="N12">
-        <v>0.18446953214380049</v>
+        <v>0.21605380902828239</v>
       </c>
       <c r="O12">
-        <v>0.66203758132734691</v>
+        <v>0.81783432925066002</v>
       </c>
       <c r="P12">
-        <v>0.88598883242230042</v>
+        <v>0.8063159986070807</v>
       </c>
       <c r="Q12">
-        <v>0.49228659868809871</v>
+        <v>0.5357841469449075</v>
       </c>
       <c r="R12">
-        <v>6.6894349110521332E-3</v>
+        <v>1.1871812904907761E-2</v>
       </c>
       <c r="S12">
-        <v>2.2754459816207349E-3</v>
+        <v>2.0281636385317901E-4</v>
       </c>
       <c r="T12">
-        <v>3.1583512505696958E-2</v>
+        <v>1.0739242615286811E-2</v>
       </c>
       <c r="U12">
-        <v>8.125486060570089E-2</v>
+        <v>2.606417414104541E-2</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -1151,64 +1151,64 @@
         <v>1.2E-2</v>
       </c>
       <c r="B13">
-        <v>5.9365737904070758E-2</v>
+        <v>2.2660032998794901E-2</v>
       </c>
       <c r="C13">
-        <v>1.2990818956819261E-3</v>
+        <v>0.22350347102628049</v>
       </c>
       <c r="D13">
-        <v>2.3390420998008851E-2</v>
+        <v>3.5232510136523107E-2</v>
       </c>
       <c r="E13">
-        <v>0.71942812232876685</v>
+        <v>0.7429980373214089</v>
       </c>
       <c r="F13">
-        <v>0.53360861384353853</v>
+        <v>0.56642858599910917</v>
       </c>
       <c r="G13">
-        <v>0.1770787680397776</v>
+        <v>0.118288448038122</v>
       </c>
       <c r="H13">
-        <v>7.7152327935268647E-2</v>
+        <v>5.6710506847563381E-2</v>
       </c>
       <c r="I13">
-        <v>0.71767521489437236</v>
+        <v>0.63767717453030826</v>
       </c>
       <c r="J13">
-        <v>7.5522747407697294E-2</v>
+        <v>9.4361908339447298E-2</v>
       </c>
       <c r="K13">
-        <v>0.26227665523381649</v>
+        <v>0.142357099030783</v>
       </c>
       <c r="L13">
-        <v>2.8530138984038139E-2</v>
+        <v>2.185574772316258E-2</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.40710996772454272</v>
+        <v>0.26131634550757737</v>
       </c>
       <c r="O13">
-        <v>7.9538801782946828E-3</v>
+        <v>1.015785831205859E-2</v>
       </c>
       <c r="P13">
-        <v>1.5802678124681151E-2</v>
+        <v>9.6402147975457615E-3</v>
       </c>
       <c r="Q13">
-        <v>3.219395331343113E-3</v>
+        <v>4.1051786869103248E-3</v>
       </c>
       <c r="R13">
-        <v>1.6878130177938639E-6</v>
+        <v>2.519480515308095E-6</v>
       </c>
       <c r="S13">
-        <v>1.9507428314467329E-7</v>
+        <v>1.068694830821751E-8</v>
       </c>
       <c r="T13">
-        <v>1.3169428478282561E-5</v>
+        <v>2.1771681006522569E-6</v>
       </c>
       <c r="U13">
-        <v>4.5493740565583303E-5</v>
+        <v>8.2383053916948984E-6</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -1216,64 +1216,64 @@
         <v>1.2999999999999999E-2</v>
       </c>
       <c r="B14">
-        <v>0.29109471768131218</v>
+        <v>0.19910257037958631</v>
       </c>
       <c r="C14">
-        <v>1.8899065023101749E-2</v>
+        <v>0.88357760506579919</v>
       </c>
       <c r="D14">
-        <v>0.13048545887794241</v>
+        <v>0.23664745835504419</v>
       </c>
       <c r="E14">
-        <v>0.67719903937075887</v>
+        <v>0.46719283235261982</v>
       </c>
       <c r="F14">
-        <v>0.15333306205479641</v>
+        <v>7.9733954577495963E-2</v>
       </c>
       <c r="G14">
-        <v>3.3553614779047447E-2</v>
+        <v>5.348978460721434E-3</v>
       </c>
       <c r="H14">
-        <v>0.36446952640353553</v>
+        <v>0.39541823915673591</v>
       </c>
       <c r="I14">
-        <v>0.64493666148463125</v>
+        <v>0.51304741852628455</v>
       </c>
       <c r="J14">
-        <v>0.37918044030344128</v>
+        <v>0.59483749462603752</v>
       </c>
       <c r="K14">
-        <v>0.81110074704340995</v>
+        <v>0.7607590193584356</v>
       </c>
       <c r="L14">
-        <v>0.18446953214380049</v>
+        <v>0.21605380902828239</v>
       </c>
       <c r="M14">
-        <v>0.40710996772454272</v>
+        <v>0.26131634550757737</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14">
-        <v>7.6200490995754711E-2</v>
+        <v>0.13330557486909009</v>
       </c>
       <c r="P14">
-        <v>0.1301960037589027</v>
+        <v>0.12892792323151889</v>
       </c>
       <c r="Q14">
-        <v>4.108472871979809E-2</v>
+        <v>6.4319102472099918E-2</v>
       </c>
       <c r="R14">
-        <v>8.155725514407265E-5</v>
+        <v>1.6669796005188591E-4</v>
       </c>
       <c r="S14">
-        <v>1.587896920329303E-5</v>
+        <v>1.0667762181544789E-6</v>
       </c>
       <c r="T14">
-        <v>5.47133968249634E-4</v>
+        <v>1.4614742576834729E-4</v>
       </c>
       <c r="U14">
-        <v>1.780932440947094E-3</v>
+        <v>4.7873619186118282E-4</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -1281,64 +1281,64 @@
         <v>1.4E-2</v>
       </c>
       <c r="B15">
-        <v>0.50753356100676106</v>
+        <v>0.92353777284262428</v>
       </c>
       <c r="C15">
-        <v>0.53301983094476524</v>
+        <v>0.19707170975854421</v>
       </c>
       <c r="D15">
-        <v>0.96139307736471069</v>
+        <v>0.93104265953493603</v>
       </c>
       <c r="E15">
-        <v>3.5064094537264029E-2</v>
+        <v>3.5395453921111798E-2</v>
       </c>
       <c r="F15">
-        <v>1.1679691319983691E-3</v>
+        <v>1.201265596092091E-3</v>
       </c>
       <c r="G15">
-        <v>8.3244039769896067E-5</v>
+        <v>1.9328850194036021E-5</v>
       </c>
       <c r="H15">
-        <v>0.38143001227814238</v>
+        <v>0.54955650685881541</v>
       </c>
       <c r="I15">
-        <v>2.4540596652838781E-2</v>
+        <v>3.3540325245725547E-2</v>
       </c>
       <c r="J15">
-        <v>0.3312870594269951</v>
+        <v>0.30680503864922998</v>
       </c>
       <c r="K15">
-        <v>0.10509732746414931</v>
+        <v>0.20509363244962789</v>
       </c>
       <c r="L15">
-        <v>0.66203758132734691</v>
+        <v>0.81783432925066002</v>
       </c>
       <c r="M15">
-        <v>7.9538801782946828E-3</v>
+        <v>1.015785831205859E-2</v>
       </c>
       <c r="N15">
-        <v>7.6200490995754711E-2</v>
+        <v>0.13330557486909009</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.75908918877143616</v>
+        <v>0.9881537885928926</v>
       </c>
       <c r="Q15">
-        <v>0.80654834241385709</v>
+        <v>0.68508214868104678</v>
       </c>
       <c r="R15">
-        <v>2.0170618499003451E-2</v>
+        <v>1.897989395095576E-2</v>
       </c>
       <c r="S15">
-        <v>7.9481271911348555E-3</v>
+        <v>3.4451715652528727E-4</v>
       </c>
       <c r="T15">
-        <v>8.3064634069270657E-2</v>
+        <v>1.7212826152682981E-2</v>
       </c>
       <c r="U15">
-        <v>0.1931432118034373</v>
+        <v>4.0719377633526267E-2</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -1346,64 +1346,64 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="B16">
-        <v>0.70233253996428613</v>
+        <v>0.91260048201946353</v>
       </c>
       <c r="C16">
-        <v>0.34889111782327298</v>
+        <v>0.19156705878699609</v>
       </c>
       <c r="D16">
-        <v>0.82653214474567149</v>
+        <v>0.92097905922376888</v>
       </c>
       <c r="E16">
-        <v>6.1977767008589472E-2</v>
+        <v>3.3991059788766681E-2</v>
       </c>
       <c r="F16">
-        <v>2.488898533891453E-3</v>
+        <v>1.120557419855551E-3</v>
       </c>
       <c r="G16">
-        <v>1.8725860748659631E-4</v>
+        <v>1.7530536182437422E-5</v>
       </c>
       <c r="H16">
-        <v>0.55508310873477495</v>
+        <v>0.53948013344643864</v>
       </c>
       <c r="I16">
-        <v>4.5492717752274002E-2</v>
+        <v>3.2090614185397139E-2</v>
       </c>
       <c r="J16">
-        <v>0.49739502277625292</v>
+        <v>0.29881364100180208</v>
       </c>
       <c r="K16">
-        <v>0.17849602357732891</v>
+        <v>0.19885064981560219</v>
       </c>
       <c r="L16">
-        <v>0.88598883242230042</v>
+        <v>0.8063159986070807</v>
       </c>
       <c r="M16">
-        <v>1.5802678124681151E-2</v>
+        <v>9.6402147975457615E-3</v>
       </c>
       <c r="N16">
-        <v>0.1301960037589027</v>
+        <v>0.12892792323151889</v>
       </c>
       <c r="O16">
-        <v>0.75908918877143616</v>
+        <v>0.9881537885928926</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>0.57368065246121303</v>
+        <v>0.69519194641438209</v>
       </c>
       <c r="R16">
-        <v>7.9558657921327477E-3</v>
+        <v>1.9534488790882671E-2</v>
       </c>
       <c r="S16">
-        <v>2.6585672738331928E-3</v>
+        <v>3.5588528109451898E-4</v>
       </c>
       <c r="T16">
-        <v>3.8010587274567957E-2</v>
+        <v>1.7718597531934312E-2</v>
       </c>
       <c r="U16">
-        <v>9.81689480717233E-2</v>
+        <v>4.1848419069977771E-2</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -1411,64 +1411,64 @@
         <v>1.6E-2</v>
       </c>
       <c r="B17">
-        <v>0.36366904040177028</v>
+        <v>0.63969912329173906</v>
       </c>
       <c r="C17">
-        <v>0.69385667353563485</v>
+        <v>0.10214912404690719</v>
       </c>
       <c r="D17">
-        <v>0.79187478700687963</v>
+        <v>0.66624701129801711</v>
       </c>
       <c r="E17">
-        <v>1.7898943899704159E-2</v>
+        <v>1.5957077934356429E-2</v>
       </c>
       <c r="F17">
-        <v>3.8964064587659929E-4</v>
+        <v>4.385442269348654E-4</v>
       </c>
       <c r="G17">
-        <v>2.183428890054966E-5</v>
+        <v>6.6708261383269144E-6</v>
       </c>
       <c r="H17">
-        <v>0.25696358585112322</v>
+        <v>0.33215122224033999</v>
       </c>
       <c r="I17">
-        <v>1.1487691412458249E-2</v>
+        <v>1.4465158397158491E-2</v>
       </c>
       <c r="J17">
-        <v>0.21422916773552431</v>
+        <v>0.16166965118519239</v>
       </c>
       <c r="K17">
-        <v>5.7108568982188322E-2</v>
+        <v>0.10141444435835741</v>
       </c>
       <c r="L17">
-        <v>0.49228659868809871</v>
+        <v>0.5357841469449075</v>
       </c>
       <c r="M17">
-        <v>3.219395331343113E-3</v>
+        <v>4.1051786869103248E-3</v>
       </c>
       <c r="N17">
-        <v>4.108472871979809E-2</v>
+        <v>6.4319102472099918E-2</v>
       </c>
       <c r="O17">
-        <v>0.80654834241385709</v>
+        <v>0.68508214868104678</v>
       </c>
       <c r="P17">
-        <v>0.57368065246121303</v>
+        <v>0.69519194641438209</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17">
-        <v>3.3325102706013188E-2</v>
+        <v>6.011161419315085E-2</v>
       </c>
       <c r="S17">
-        <v>1.3929509889307671E-2</v>
+        <v>1.8295132510696981E-3</v>
       </c>
       <c r="T17">
-        <v>0.1288749734565168</v>
+        <v>5.5350638803048358E-2</v>
       </c>
       <c r="U17">
-        <v>0.285186468746852</v>
+        <v>0.1136944367304641</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -1476,64 +1476,64 @@
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="B18">
-        <v>4.1251767922944943E-3</v>
+        <v>2.3621880677165429E-2</v>
       </c>
       <c r="C18">
-        <v>8.9704041473268992E-2</v>
+        <v>5.0544331060029435E-4</v>
       </c>
       <c r="D18">
-        <v>3.3767880951125338E-2</v>
+        <v>3.6321676396843597E-2</v>
       </c>
       <c r="E18">
-        <v>3.0990622644575547E-5</v>
+        <v>3.0188267587006789E-5</v>
       </c>
       <c r="F18">
-        <v>1.050392069685657E-7</v>
+        <v>7.1590081864807851E-8</v>
       </c>
       <c r="G18">
-        <v>3.010348861796489E-9</v>
+        <v>1.9793818420838081E-10</v>
       </c>
       <c r="H18">
-        <v>1.7441918280137591E-3</v>
+        <v>4.5405217085927691E-3</v>
       </c>
       <c r="I18">
-        <v>1.153151746749844E-5</v>
+        <v>1.585970041487317E-5</v>
       </c>
       <c r="J18">
-        <v>1.0048217174921559E-3</v>
+        <v>7.1770002819693918E-4</v>
       </c>
       <c r="K18">
-        <v>1.023646773407275E-4</v>
+        <v>2.7559145630157541E-4</v>
       </c>
       <c r="L18">
-        <v>6.6894349110521332E-3</v>
+        <v>1.1871812904907761E-2</v>
       </c>
       <c r="M18">
-        <v>1.6878130177938639E-6</v>
+        <v>2.519480515308095E-6</v>
       </c>
       <c r="N18">
-        <v>8.155725514407265E-5</v>
+        <v>1.6669796005188591E-4</v>
       </c>
       <c r="O18">
-        <v>2.0170618499003451E-2</v>
+        <v>1.897989395095576E-2</v>
       </c>
       <c r="P18">
-        <v>7.9558657921327477E-3</v>
+        <v>1.9534488790882671E-2</v>
       </c>
       <c r="Q18">
-        <v>3.3325102706013188E-2</v>
+        <v>6.011161419315085E-2</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>0.8093021509312599</v>
+        <v>0.17070223588593639</v>
       </c>
       <c r="T18">
-        <v>0.49515467848614308</v>
+        <v>0.96820130118868253</v>
       </c>
       <c r="U18">
-        <v>0.2300984781512066</v>
+        <v>0.74372469239913874</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
@@ -1541,64 +1541,64 @@
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="B19">
-        <v>1.3647795485932661E-3</v>
+        <v>6.0501546669398921E-4</v>
       </c>
       <c r="C19">
-        <v>4.5386859255410167E-2</v>
+        <v>4.5656146139792094E-6</v>
       </c>
       <c r="D19">
-        <v>1.6207462845926269E-2</v>
+        <v>1.379148370745271E-3</v>
       </c>
       <c r="E19">
-        <v>5.9665984999787224E-6</v>
+        <v>2.037205290976919E-7</v>
       </c>
       <c r="F19">
-        <v>8.9226006791013083E-9</v>
+        <v>2.05556249882986E-10</v>
       </c>
       <c r="G19">
-        <v>1.7452323011691099E-10</v>
+        <v>4.2889025364314838E-13</v>
       </c>
       <c r="H19">
-        <v>4.8997220128347673E-4</v>
+        <v>6.3153504091794087E-5</v>
       </c>
       <c r="I19">
-        <v>1.755458076226159E-6</v>
+        <v>7.8161807827205954E-8</v>
       </c>
       <c r="J19">
-        <v>2.4654655373752431E-4</v>
+        <v>5.2469279590838088E-6</v>
       </c>
       <c r="K19">
-        <v>1.852576821243422E-5</v>
+        <v>1.6287292802392299E-6</v>
       </c>
       <c r="L19">
-        <v>2.2754459816207349E-3</v>
+        <v>2.0281636385317901E-4</v>
       </c>
       <c r="M19">
-        <v>1.9507428314467329E-7</v>
+        <v>1.068694830821751E-8</v>
       </c>
       <c r="N19">
-        <v>1.587896920329303E-5</v>
+        <v>1.0667762181544789E-6</v>
       </c>
       <c r="O19">
-        <v>7.9481271911348555E-3</v>
+        <v>3.4451715652528727E-4</v>
       </c>
       <c r="P19">
-        <v>2.6585672738331928E-3</v>
+        <v>3.5588528109451898E-4</v>
       </c>
       <c r="Q19">
-        <v>1.3929509889307671E-2</v>
+        <v>1.8295132510696981E-3</v>
       </c>
       <c r="R19">
-        <v>0.8093021509312599</v>
+        <v>0.17070223588593639</v>
       </c>
       <c r="S19">
         <v>1</v>
       </c>
       <c r="T19">
-        <v>0.33771385002974641</v>
+        <v>0.18335320450198689</v>
       </c>
       <c r="U19">
-        <v>0.13123308503654649</v>
+        <v>9.0716701905053335E-2</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
@@ -1606,64 +1606,64 @@
         <v>1.9E-2</v>
       </c>
       <c r="B20">
-        <v>1.9982948390647199E-2</v>
+        <v>2.160871112204402E-2</v>
       </c>
       <c r="C20">
-        <v>0.28000083901547818</v>
+        <v>4.477272807662955E-4</v>
       </c>
       <c r="D20">
-        <v>0.1142787734893619</v>
+        <v>3.3564729318428937E-2</v>
       </c>
       <c r="E20">
-        <v>2.07613304526675E-4</v>
+        <v>2.6465662829402569E-5</v>
       </c>
       <c r="F20">
-        <v>8.3499767257682062E-7</v>
+        <v>6.1071978629408152E-8</v>
       </c>
       <c r="G20">
-        <v>2.305994063786861E-8</v>
+        <v>1.6713553797903741E-10</v>
       </c>
       <c r="H20">
-        <v>9.5421709355671906E-3</v>
+        <v>4.0791400816907039E-3</v>
       </c>
       <c r="I20">
-        <v>8.4465600985405672E-5</v>
+        <v>1.3778491824322639E-5</v>
       </c>
       <c r="J20">
-        <v>5.9963658072218814E-3</v>
+        <v>6.3250325845437419E-4</v>
       </c>
       <c r="K20">
-        <v>7.1162071850096223E-4</v>
+        <v>2.4122916686599241E-4</v>
       </c>
       <c r="L20">
-        <v>3.1583512505696958E-2</v>
+        <v>1.0739242615286811E-2</v>
       </c>
       <c r="M20">
-        <v>1.3169428478282561E-5</v>
+        <v>2.1771681006522569E-6</v>
       </c>
       <c r="N20">
-        <v>5.47133968249634E-4</v>
+        <v>1.4614742576834729E-4</v>
       </c>
       <c r="O20">
-        <v>8.3064634069270657E-2</v>
+        <v>1.7212826152682981E-2</v>
       </c>
       <c r="P20">
-        <v>3.8010587274567957E-2</v>
+        <v>1.7718597531934312E-2</v>
       </c>
       <c r="Q20">
-        <v>0.1288749734565168</v>
+        <v>5.5350638803048358E-2</v>
       </c>
       <c r="R20">
-        <v>0.49515467848614308</v>
+        <v>0.96820130118868253</v>
       </c>
       <c r="S20">
-        <v>0.33771385002974641</v>
+        <v>0.18335320450198689</v>
       </c>
       <c r="T20">
         <v>1</v>
       </c>
       <c r="U20">
-        <v>0.60450765956091557</v>
+        <v>0.71381934762757515</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
@@ -1671,61 +1671,61 @@
         <v>0.02</v>
       </c>
       <c r="B21">
-        <v>5.2559506299195487E-2</v>
+        <v>4.7349902716855567E-2</v>
       </c>
       <c r="C21">
-        <v>0.53321067977524561</v>
+        <v>1.3303393215650949E-3</v>
       </c>
       <c r="D21">
-        <v>0.2355539855906961</v>
+        <v>6.7177421816625268E-2</v>
       </c>
       <c r="E21">
-        <v>6.7496974590167689E-4</v>
+        <v>8.7134891309099995E-5</v>
       </c>
       <c r="F21">
-        <v>2.7963355654660078E-6</v>
+        <v>2.6273533973807022E-7</v>
       </c>
       <c r="G21">
-        <v>7.0097417837121563E-8</v>
+        <v>8.0201442387832445E-10</v>
       </c>
       <c r="H21">
-        <v>2.722673669290224E-2</v>
+        <v>1.0581228653927631E-2</v>
       </c>
       <c r="I21">
-        <v>2.871296854111173E-4</v>
+        <v>4.9401563314045282E-5</v>
       </c>
       <c r="J21">
-        <v>1.8097470812841781E-2</v>
+        <v>1.9655598244796889E-3</v>
       </c>
       <c r="K21">
-        <v>2.3634201412706E-3</v>
+        <v>8.004630598521823E-4</v>
       </c>
       <c r="L21">
-        <v>8.125486060570089E-2</v>
+        <v>2.606417414104541E-2</v>
       </c>
       <c r="M21">
-        <v>4.5493740565583303E-5</v>
+        <v>8.2383053916948984E-6</v>
       </c>
       <c r="N21">
-        <v>1.780932440947094E-3</v>
+        <v>4.7873619186118282E-4</v>
       </c>
       <c r="O21">
-        <v>0.1931432118034373</v>
+        <v>4.0719377633526267E-2</v>
       </c>
       <c r="P21">
-        <v>9.81689480717233E-2</v>
+        <v>4.1848419069977771E-2</v>
       </c>
       <c r="Q21">
-        <v>0.285186468746852</v>
+        <v>0.1136944367304641</v>
       </c>
       <c r="R21">
-        <v>0.2300984781512066</v>
+        <v>0.74372469239913874</v>
       </c>
       <c r="S21">
-        <v>0.13123308503654649</v>
+        <v>9.0716701905053335E-2</v>
       </c>
       <c r="T21">
-        <v>0.60450765956091557</v>
+        <v>0.71381934762757515</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -1737,8 +1737,8 @@
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
+        <color theme="5"/>
         <color theme="0"/>
-        <color theme="5"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
